--- a/docs/StructureDefinition-VAAllergyIntolerance.xlsx
+++ b/docs/StructureDefinition-VAAllergyIntolerance.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$67</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$78</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2354" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2746" uniqueCount="474">
   <si>
     <t>Path</t>
   </si>
@@ -337,7 +337,145 @@
     <t>DomainResource.extension</t>
   </si>
   <si>
-    <t>richAnnotation/annotation/text</t>
+    <t>richAnnotation-type</t>
+  </si>
+  <si>
+    <t>COMMENT TYPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/richAnnotation.type}
+</t>
+  </si>
+  <si>
+    <t>Comment type</t>
+  </si>
+  <si>
+    <t>This field indicates the type of comments. If this field is answered "V", then these comments are verifier entered.  If this field is answered "O", then these are observer comments.  If this field is answered "E", then these are entered in error comments.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>PATIENT ALLERGIES @COMMENT TYPE 120.826-1.5</t>
+  </si>
+  <si>
+    <t>richAnnotation-annotation-author-extension-practitioner-title</t>
+  </si>
+  <si>
+    <t>TITLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/richAnnotation.annotation.author.extension.practitioner-title}
+</t>
+  </si>
+  <si>
+    <t>Title of user commenting</t>
+  </si>
+  <si>
+    <t>This field tracks the user who entered this comment. The field is automatically stuffed when that user enters a comment.</t>
+  </si>
+  <si>
+    <t>NEW PERSON @TITLE 120.826-1:200-8</t>
+  </si>
+  <si>
+    <t>richAnnotation-annotation-author</t>
+  </si>
+  <si>
+    <t>USER ENTERING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/richAnnotation.annotation.author}
+</t>
+  </si>
+  <si>
+    <t>User who made comment</t>
+  </si>
+  <si>
+    <t>This field tracks the user who entered this comment.  The field is automatically stuffed when that user enters a comment.</t>
+  </si>
+  <si>
+    <t>PATIENT ALLERGIES @USER ENTERING 120.826-1</t>
+  </si>
+  <si>
+    <t>richAnnotation-annotation-date</t>
+  </si>
+  <si>
+    <t>DATE/TIME COMMENT ENTERED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/richAnnotation.annotation.date}
+</t>
+  </si>
+  <si>
+    <t>Comments Date/time</t>
+  </si>
+  <si>
+    <t>This field is the date/time this comment was entered.  This field is automatically filled by the system when a user enters a comment.</t>
+  </si>
+  <si>
+    <t>PATIENT ALLERGIES @DATE/TIME COMMENT ENTERED 120.826-.01</t>
+  </si>
+  <si>
+    <t>allergyintolerance-reactionAssessed</t>
+  </si>
+  <si>
+    <t>REACTION ASSESSMENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/allergyintolerance-reactionAssessed}
+</t>
+  </si>
+  <si>
+    <t>Assessment</t>
+  </si>
+  <si>
+    <t>This field indicates if the patient has a reaction on file or not.</t>
+  </si>
+  <si>
+    <t>ADVERSE REACTION ASSESSMENT  @REACTION ASSESSMENT 120.86-1</t>
+  </si>
+  <si>
+    <t>allergyintolerance-vaSubstanceCategory</t>
+  </si>
+  <si>
+    <t>ALLERGY TYPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/allergyintolerance-vaSubstanceCategory}
+</t>
+  </si>
+  <si>
+    <t>This field contains the type(s) for this causative agent.  The user can enter the type(s) separated by commas, or the following codes:  D=Drug, F=Food, O=Other.  If codes are used, do not use commas to separate multiple codes.  Examples of valid entries are:  DRUG or DRUG, FOOD or D or DF or OTHER.</t>
+  </si>
+  <si>
+    <t>PATIENT ALLERGIES @ALLERGY TYPE 120.8-3.1</t>
+  </si>
+  <si>
+    <t>allergyIntolerance-substanceIngredient</t>
+  </si>
+  <si>
+    <t>DRUG INGREDIENTS (MULTIPLE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/allergyIntolerance-substanceIngredient}
+</t>
+  </si>
+  <si>
+    <t>DRUG INGREDIENTS</t>
+  </si>
+  <si>
+    <t>List of drug ingredients to which patient had reaction for this allergy/adverse reaction.</t>
+  </si>
+  <si>
+    <t>PATIENT ALLERGIES @DRUG INGREDIENTS (MULTIPLE) 120.802-2</t>
+  </si>
+  <si>
+    <t>richAnnotation-annotation-text</t>
   </si>
   <si>
     <t>COMMENTS</t>
@@ -353,145 +491,7 @@
     <t>This field contains comments that were entered.</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
     <t>PATIENT ALLERGIES @COMMENTS  120.8262-2</t>
-  </si>
-  <si>
-    <t>allergyIntolerance-substanceIngredient</t>
-  </si>
-  <si>
-    <t>DRUG INGREDIENTS (MULTIPLE)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/allergyIntolerance-substanceIngredient}
-</t>
-  </si>
-  <si>
-    <t>DRUG INGREDIENTS</t>
-  </si>
-  <si>
-    <t>List of drug ingredients to which patient had reaction for this allergy/adverse reaction.</t>
-  </si>
-  <si>
-    <t>PATIENT ALLERGIES @DRUG INGREDIENTS (MULTIPLE) 120.802-2</t>
-  </si>
-  <si>
-    <t>allergyintolerance-vaSubstanceCategory</t>
-  </si>
-  <si>
-    <t>ALLERGY TYPE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/allergyintolerance-vaSubstanceCategory}
-</t>
-  </si>
-  <si>
-    <t>This field contains the type(s) for this causative agent.  The user can enter the type(s) separated by commas, or the following codes:  D=Drug, F=Food, O=Other.  If codes are used, do not use commas to separate multiple codes.  Examples of valid entries are:  DRUG or DRUG, FOOD or D or DF or OTHER.</t>
-  </si>
-  <si>
-    <t>PATIENT ALLERGIES @ALLERGY TYPE 120.8-3.1</t>
-  </si>
-  <si>
-    <t>allergyintolerance-reactionAssessed</t>
-  </si>
-  <si>
-    <t>REACTION ASSESSMENT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/allergyintolerance-reactionAssessed}
-</t>
-  </si>
-  <si>
-    <t>Assessment</t>
-  </si>
-  <si>
-    <t>This field indicates if the patient has a reaction on file or not.</t>
-  </si>
-  <si>
-    <t>ADVERSE REACTION ASSESSMENT  @REACTION ASSESSMENT 120.86-1</t>
-  </si>
-  <si>
-    <t>richAnnotation/annotation/date</t>
-  </si>
-  <si>
-    <t>DATE/TIME COMMENT ENTERED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/richAnnotation.annotation.date}
-</t>
-  </si>
-  <si>
-    <t>Comments Date/time</t>
-  </si>
-  <si>
-    <t>This field is the date/time this comment was entered.  This field is automatically filled by the system when a user enters a comment.</t>
-  </si>
-  <si>
-    <t>PATIENT ALLERGIES @DATE/TIME COMMENT ENTERED 120.826-.01</t>
-  </si>
-  <si>
-    <t>richAnnotation/annotation/author</t>
-  </si>
-  <si>
-    <t>USER ENTERING</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/richAnnotation.annotation.author}
-</t>
-  </si>
-  <si>
-    <t>User who made comment</t>
-  </si>
-  <si>
-    <t>This field tracks the user who entered this comment.  The field is automatically stuffed when that user enters a comment.</t>
-  </si>
-  <si>
-    <t>PATIENT ALLERGIES @USER ENTERING 120.826-1</t>
-  </si>
-  <si>
-    <t>richAnnotation/annotation/author/extension/practitioner-title</t>
-  </si>
-  <si>
-    <t>TITLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/richAnnotation.annotation.author.extension.practitioner-title}
-</t>
-  </si>
-  <si>
-    <t>Title of user commenting</t>
-  </si>
-  <si>
-    <t>This field tracks the user who entered this comment. The field is automatically stuffed when that user enters a comment.</t>
-  </si>
-  <si>
-    <t>NEW PERSON @TITLE 120.826-1:200-8</t>
-  </si>
-  <si>
-    <t>richAnnotation/type</t>
-  </si>
-  <si>
-    <t>COMMENT TYPE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/richAnnotation.type}
-</t>
-  </si>
-  <si>
-    <t>Comment type</t>
-  </si>
-  <si>
-    <t>This field indicates the type of comments. If this field is answered "V", then these comments are verifier entered.  If this field is answered "O", then these are observer comments.  If this field is answered "E", then these are entered in error comments.</t>
-  </si>
-  <si>
-    <t>PATIENT ALLERGIES @COMMENT TYPE 120.826-1.5</t>
   </si>
   <si>
     <t>AllergyIntolerance.modifierExtension</t>
@@ -806,10 +806,13 @@
     <t>AllergyIntolerance.code.coding.system</t>
   </si>
   <si>
+    <t>GMR ALLERGY</t>
+  </si>
+  <si>
     <t>Identity of the terminology system</t>
   </si>
   <si>
-    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+    <t>This field is a variable pointer to help relate this allergy to some record in one of the files to which this field points.  The files that are pointed to are the GMR Allergies (120.82) file, National Drug (50.6) file, Drug (50) file, Drug Ingredients (50.416) file and VA Drug Class (50.605) file.</t>
   </si>
   <si>
     <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should de-reference to some definition that establish the system clearly and unambiguously.</t>
@@ -818,7 +821,13 @@
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
+    <t>http://www.va.gov/Terminology/VistADefinedTerms/50.605-.01</t>
+  </si>
+  <si>
     <t>Coding.system</t>
+  </si>
+  <si>
+    <t>PATIENT ALLERGIES @GMR ALLERGY 120.8-1</t>
   </si>
   <si>
     <t>./codeSystem</t>
@@ -1251,6 +1260,25 @@
     <t>AllergyIntolerance.reaction.extension</t>
   </si>
   <si>
+    <t>allergyintolerance-reactionObservationMode</t>
+  </si>
+  <si>
+    <t>OBSERVED/HISTORICAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/allergyintolerance-reactionObservationMode}
+</t>
+  </si>
+  <si>
+    <t>Observed/Historical</t>
+  </si>
+  <si>
+    <t>Indicates whether this allergy/adverse reaction has been observed by some personnel, or if it is historical data gathered about the patient.</t>
+  </si>
+  <si>
+    <t>PATIENT ALLERGIES @OBSERVED/HISTORICAL 120.8-6</t>
+  </si>
+  <si>
     <t>allergyintolerance-reactionDateEntered</t>
   </si>
   <si>
@@ -1270,25 +1298,6 @@
     <t>PATIENT ALLERGIES @DATE ENTERED 120.81-3</t>
   </si>
   <si>
-    <t>allergyintolerance-reactionObservationMode</t>
-  </si>
-  <si>
-    <t>OBSERVED/HISTORICAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/allergyintolerance-reactionObservationMode}
-</t>
-  </si>
-  <si>
-    <t>Observed/Historical</t>
-  </si>
-  <si>
-    <t>Indicates whether this allergy/adverse reaction has been observed by some personnel, or if it is historical data gathered about the patient.</t>
-  </si>
-  <si>
-    <t>PATIENT ALLERGIES @OBSERVED/HISTORICAL 120.8-6</t>
-  </si>
-  <si>
     <t>AllergyIntolerance.reaction.modifierExtension</t>
   </si>
   <si>
@@ -1348,6 +1357,66 @@
     <t>AL1-5</t>
   </si>
   <si>
+    <t>AllergyIntolerance.reaction.manifestation.id</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.reaction.manifestation.extension</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.reaction.manifestation.coding</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.reaction.manifestation.coding.id</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.reaction.manifestation.coding.extension</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.reaction.manifestation.coding.system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>http://www.va.gov/Terminology/VistADefinedTerms/120.83</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.reaction.manifestation.coding.version</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.reaction.manifestation.coding.code</t>
+  </si>
+  <si>
+    <t>REACTION</t>
+  </si>
+  <si>
+    <t>Signs/Symptoms</t>
+  </si>
+  <si>
+    <t>One of the reactions for this allergy/adverse reaction.</t>
+  </si>
+  <si>
+    <t>PATIENT ALLERGIES @REACTION  120.81-.01</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.reaction.manifestation.coding.display</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.reaction.manifestation.coding.userSelected</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.reaction.manifestation.text</t>
+  </si>
+  <si>
+    <t>OTHER REACTION</t>
+  </si>
+  <si>
+    <t>If this reaction cannot be found in the Sign/Symptoms (120.83) file, then the free text of what the user typed in will be here, and the GMR Reaction of OTHER will be the value of the Name field.   Once the SIGNS/SYMPTOMS file is standardized then this field will no longer be needed as all entries will appear in file 120.83 and free text entries will no longer be allowed.</t>
+  </si>
+  <si>
+    <t>PATIENT ALLERGIES @OTHER REACTION 120.81-1</t>
+  </si>
+  <si>
     <t>AllergyIntolerance.reaction.description</t>
   </si>
   <si>
@@ -1370,10 +1439,16 @@
     <t>AllergyIntolerance.reaction.onset</t>
   </si>
   <si>
-    <t>Date(/time) when manifestations showed</t>
-  </si>
-  <si>
-    <t>Record of the date and/or time of the onset of the Reaction.</t>
+    <t>DATE/TIME OF EVENT (OBSERVATION)</t>
+  </si>
+  <si>
+    <t>Date/Time of Observation</t>
+  </si>
+  <si>
+    <t>The date/time that this observed reaction occurred.</t>
+  </si>
+  <si>
+    <t>ADVERSE REACTION REPORTING @DATE/TIME OF EVENT (OBSERVATION) 120.85-.01</t>
   </si>
   <si>
     <t>AL1-6</t>
@@ -1382,10 +1457,13 @@
     <t>AllergyIntolerance.reaction.severity</t>
   </si>
   <si>
-    <t>mild | moderate | severe (of event as a whole)</t>
-  </si>
-  <si>
-    <t>Clinical assessment of the severity of the reaction event as a whole, potentially considering multiple different manifestations.</t>
+    <t>SEVERITY</t>
+  </si>
+  <si>
+    <t>Nature of Reaction</t>
+  </si>
+  <si>
+    <t>This field indicates the severity of this reaction.</t>
   </si>
   <si>
     <t>It is acknowledged that this assessment is very subjective. There may be some some specific practice domains where objective scales have been applied. Objective scales can be included in this model as extensions.</t>
@@ -1395,6 +1473,9 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/reaction-event-severity</t>
+  </si>
+  <si>
+    <t>ADVERSE REACTION REPORTING @SEVERITY 120.85-14.5</t>
   </si>
   <si>
     <t>AllergyIntolerance.reaction.exposureRoute</t>
@@ -1576,7 +1657,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM67"/>
+  <dimension ref="A1:AM78"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1585,10 +1666,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="43.109375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="56.8515625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="58.39453125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="57.02734375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="30.5078125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="36.0234375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
@@ -1620,7 +1701,7 @@
     <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="66.76953125" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="79.00390625" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="255.0" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="24.35546875" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="45.6171875" customWidth="true" bestFit="true"/>
@@ -2885,10 +2966,10 @@
         <v>118</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2954,7 +3035,7 @@
         <v>108</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>94</v>
@@ -2971,13 +3052,13 @@
         <v>95</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C13" t="s" s="2">
         <v>43</v>
       </c>
       <c r="D13" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E13" t="s" s="2">
         <v>41</v>
@@ -2995,13 +3076,13 @@
         <v>43</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -3067,7 +3148,7 @@
         <v>108</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>94</v>
@@ -3084,13 +3165,13 @@
         <v>95</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C14" t="s" s="2">
         <v>43</v>
       </c>
       <c r="D14" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E14" t="s" s="2">
         <v>41</v>
@@ -3108,13 +3189,13 @@
         <v>43</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -3180,7 +3261,7 @@
         <v>108</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>94</v>
@@ -3197,13 +3278,13 @@
         <v>95</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C15" t="s" s="2">
         <v>43</v>
       </c>
       <c r="D15" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E15" t="s" s="2">
         <v>41</v>
@@ -3221,10 +3302,10 @@
         <v>43</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K15" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L15" t="s" s="2">
         <v>137</v>
@@ -4974,7 +5055,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="31" hidden="true">
+    <row r="31">
       <c r="A31" t="s" s="2">
         <v>245</v>
       </c>
@@ -4982,7 +5063,9 @@
       <c r="C31" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="D31" s="2"/>
+      <c r="D31" t="s" s="2">
+        <v>246</v>
+      </c>
       <c r="E31" t="s" s="2">
         <v>41</v>
       </c>
@@ -4990,7 +5073,7 @@
         <v>51</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>43</v>
@@ -5002,23 +5085,23 @@
         <v>64</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>43</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>43</v>
+        <v>251</v>
       </c>
       <c r="R31" t="s" s="2">
         <v>43</v>
@@ -5060,7 +5143,7 @@
         <v>43</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>41</v>
@@ -5075,21 +5158,21 @@
         <v>43</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>43</v>
+        <v>253</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>252</v>
+        <v>255</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5115,13 +5198,13 @@
         <v>224</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5171,7 +5254,7 @@
         <v>43</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
@@ -5189,25 +5272,25 @@
         <v>43</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
         <v>43</v>
       </c>
       <c r="D33" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E33" t="s" s="2">
         <v>41</v>
@@ -5228,14 +5311,14 @@
         <v>70</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>43</v>
@@ -5284,7 +5367,7 @@
         <v>43</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>41</v>
@@ -5299,21 +5382,21 @@
         <v>43</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5339,14 +5422,14 @@
         <v>224</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>43</v>
@@ -5395,7 +5478,7 @@
         <v>43</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>41</v>
@@ -5413,18 +5496,18 @@
         <v>43</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5447,19 +5530,19 @@
         <v>52</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>43</v>
@@ -5508,7 +5591,7 @@
         <v>43</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>41</v>
@@ -5526,25 +5609,25 @@
         <v>43</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>284</v>
+        <v>287</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
         <v>43</v>
       </c>
       <c r="D36" t="s" s="2">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="E36" t="s" s="2">
         <v>41</v>
@@ -5565,16 +5648,16 @@
         <v>224</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>43</v>
@@ -5623,7 +5706,7 @@
         <v>43</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>41</v>
@@ -5638,25 +5721,25 @@
         <v>43</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -5675,13 +5758,13 @@
         <v>52</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5732,7 +5815,7 @@
         <v>43</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>51</v>
@@ -5750,18 +5833,18 @@
         <v>43</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>302</v>
+        <v>305</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5870,7 +5953,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5981,7 +6064,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6007,13 +6090,13 @@
         <v>224</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6063,7 +6146,7 @@
         <v>43</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>41</v>
@@ -6072,7 +6155,7 @@
         <v>51</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>43</v>
@@ -6092,7 +6175,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6118,13 +6201,13 @@
         <v>158</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6174,7 +6257,7 @@
         <v>43</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>41</v>
@@ -6192,7 +6275,7 @@
         <v>43</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>43</v>
@@ -6203,14 +6286,14 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
         <v>43</v>
       </c>
       <c r="D42" t="s" s="2">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="E42" t="s" s="2">
         <v>41</v>
@@ -6231,13 +6314,13 @@
         <v>224</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6287,7 +6370,7 @@
         <v>43</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>41</v>
@@ -6302,7 +6385,7 @@
         <v>43</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>94</v>
@@ -6316,7 +6399,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6339,13 +6422,13 @@
         <v>43</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6396,7 +6479,7 @@
         <v>43</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>41</v>
@@ -6414,10 +6497,10 @@
         <v>43</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>43</v>
@@ -6425,14 +6508,14 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
         <v>43</v>
       </c>
       <c r="D44" t="s" s="2">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="E44" t="s" s="2">
         <v>41</v>
@@ -6450,13 +6533,13 @@
         <v>43</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6507,7 +6590,7 @@
         <v>43</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>41</v>
@@ -6522,25 +6605,25 @@
         <v>43</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>338</v>
+        <v>341</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -6559,13 +6642,13 @@
         <v>43</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6616,7 +6699,7 @@
         <v>43</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>41</v>
@@ -6634,10 +6717,10 @@
         <v>43</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>43</v>
@@ -6645,7 +6728,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6754,7 +6837,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6865,16 +6948,16 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="C48" t="s" s="2">
         <v>43</v>
       </c>
       <c r="D48" t="s" s="2">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="E48" t="s" s="2">
         <v>41</v>
@@ -6892,13 +6975,13 @@
         <v>43</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -6964,7 +7047,7 @@
         <v>43</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>94</v>
@@ -6978,7 +7061,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7004,13 +7087,13 @@
         <v>224</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -7060,7 +7143,7 @@
         <v>43</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>41</v>
@@ -7069,7 +7152,7 @@
         <v>51</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>43</v>
@@ -7089,7 +7172,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7115,13 +7198,13 @@
         <v>158</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -7171,7 +7254,7 @@
         <v>43</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>41</v>
@@ -7189,7 +7272,7 @@
         <v>43</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>43</v>
@@ -7200,7 +7283,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7226,13 +7309,13 @@
         <v>224</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -7282,7 +7365,7 @@
         <v>43</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>41</v>
@@ -7311,14 +7394,14 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="D52" t="s" s="2">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="E52" t="s" s="2">
         <v>41</v>
@@ -7336,16 +7419,16 @@
         <v>52</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -7395,7 +7478,7 @@
         <v>43</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>41</v>
@@ -7410,21 +7493,21 @@
         <v>43</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>369</v>
+        <v>372</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7447,16 +7530,16 @@
         <v>43</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -7506,7 +7589,7 @@
         <v>43</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>41</v>
@@ -7524,7 +7607,7 @@
         <v>43</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>43</v>
@@ -7535,7 +7618,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7558,16 +7641,16 @@
         <v>43</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -7617,7 +7700,7 @@
         <v>43</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>41</v>
@@ -7635,7 +7718,7 @@
         <v>43</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>43</v>
@@ -7646,7 +7729,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7669,13 +7752,13 @@
         <v>43</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -7726,7 +7809,7 @@
         <v>43</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>41</v>
@@ -7738,13 +7821,13 @@
         <v>43</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>43</v>
@@ -7755,7 +7838,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7864,7 +7947,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7971,16 +8054,16 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="C58" t="s" s="2">
         <v>43</v>
       </c>
       <c r="D58" t="s" s="2">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="E58" t="s" s="2">
         <v>41</v>
@@ -7998,13 +8081,13 @@
         <v>43</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8070,7 +8153,7 @@
         <v>108</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>94</v>
@@ -8084,16 +8167,16 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="C59" t="s" s="2">
         <v>43</v>
       </c>
       <c r="D59" t="s" s="2">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="E59" t="s" s="2">
         <v>41</v>
@@ -8111,13 +8194,13 @@
         <v>43</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -8183,7 +8266,7 @@
         <v>108</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>94</v>
@@ -8197,11 +8280,11 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -8226,7 +8309,7 @@
         <v>153</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="M60" t="s" s="2">
         <v>155</v>
@@ -8279,7 +8362,7 @@
         <v>43</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>41</v>
@@ -8308,7 +8391,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8334,13 +8417,13 @@
         <v>213</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -8369,10 +8452,10 @@
         <v>217</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>43</v>
@@ -8390,7 +8473,7 @@
         <v>43</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>41</v>
@@ -8408,7 +8491,7 @@
         <v>43</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>43</v>
@@ -8419,11 +8502,11 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -8445,13 +8528,13 @@
         <v>213</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -8480,10 +8563,10 @@
         <v>217</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>43</v>
@@ -8501,7 +8584,7 @@
         <v>43</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>51</v>
@@ -8525,16 +8608,16 @@
         <v>43</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>419</v>
+        <v>422</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>421</v>
+        <v>43</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -8556,14 +8639,12 @@
         <v>224</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>422</v>
+        <v>225</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>424</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="M63" s="2"/>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>43</v>
@@ -8612,7 +8693,7 @@
         <v>43</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>420</v>
+        <v>227</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>41</v>
@@ -8630,7 +8711,7 @@
         <v>43</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>425</v>
+        <v>228</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>43</v>
@@ -8641,18 +8722,18 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>43</v>
+        <v>152</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>43</v>
@@ -8664,15 +8745,17 @@
         <v>43</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>332</v>
+        <v>96</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>427</v>
+        <v>230</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="M64" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>43</v>
@@ -8709,25 +8792,25 @@
         <v>43</v>
       </c>
       <c r="AA64" t="s" s="2">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>43</v>
+        <v>232</v>
       </c>
       <c r="AC64" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD64" t="s" s="2">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>426</v>
+        <v>233</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>43</v>
@@ -8739,18 +8822,18 @@
         <v>43</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>328</v>
+        <v>228</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>429</v>
+        <v>43</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8761,7 +8844,7 @@
         <v>41</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>43</v>
@@ -8770,21 +8853,23 @@
         <v>43</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>70</v>
+        <v>235</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>431</v>
+        <v>236</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>432</v>
+        <v>237</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="N65" s="2"/>
+        <v>238</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>239</v>
+      </c>
       <c r="O65" t="s" s="2">
         <v>43</v>
       </c>
@@ -8808,13 +8893,13 @@
         <v>43</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>167</v>
+        <v>43</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>434</v>
+        <v>43</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>435</v>
+        <v>43</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>43</v>
@@ -8832,13 +8917,13 @@
         <v>43</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>430</v>
+        <v>240</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>43</v>
@@ -8850,18 +8935,18 @@
         <v>43</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>208</v>
+        <v>241</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>43</v>
+        <v>242</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8884,17 +8969,15 @@
         <v>43</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>437</v>
+        <v>225</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>439</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="M66" s="2"/>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>43</v>
@@ -8919,13 +9002,13 @@
         <v>43</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>217</v>
+        <v>43</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>440</v>
+        <v>43</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>441</v>
+        <v>43</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>43</v>
@@ -8943,7 +9026,7 @@
         <v>43</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>436</v>
+        <v>227</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>41</v>
@@ -8961,7 +9044,7 @@
         <v>43</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>442</v>
+        <v>228</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>43</v>
@@ -8972,11 +9055,11 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>443</v>
+        <v>427</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>43</v>
+        <v>152</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
@@ -8995,16 +9078,16 @@
         <v>43</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>376</v>
+        <v>96</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>444</v>
+        <v>230</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>445</v>
+        <v>231</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>446</v>
+        <v>155</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -9042,19 +9125,19 @@
         <v>43</v>
       </c>
       <c r="AA67" t="s" s="2">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>43</v>
+        <v>232</v>
       </c>
       <c r="AC67" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD67" t="s" s="2">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>443</v>
+        <v>233</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>41</v>
@@ -9072,17 +9155,1250 @@
         <v>43</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>380</v>
+        <v>228</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM67" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F68" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="O68" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P68" s="2"/>
+      <c r="Q68" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="R68" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="69" hidden="true">
+      <c r="A69" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F69" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="N69" s="2"/>
+      <c r="O69" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P69" s="2"/>
+      <c r="Q69" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R69" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D70" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="E70" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F70" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="M70" s="2"/>
+      <c r="N70" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="O70" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P70" s="2"/>
+      <c r="Q70" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R70" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="71" hidden="true">
+      <c r="A71" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F71" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="M71" s="2"/>
+      <c r="N71" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="O71" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P71" s="2"/>
+      <c r="Q71" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R71" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="72" hidden="true">
+      <c r="A72" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F72" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="O72" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P72" s="2"/>
+      <c r="Q72" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R72" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D73" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="E73" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F73" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="O73" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P73" s="2"/>
+      <c r="Q73" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R73" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="74" hidden="true">
+      <c r="A74" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F74" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="N74" s="2"/>
+      <c r="O74" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P74" s="2"/>
+      <c r="Q74" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R74" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D75" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="E75" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F75" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="M75" s="2"/>
+      <c r="N75" s="2"/>
+      <c r="O75" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P75" s="2"/>
+      <c r="Q75" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R75" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D76" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="E76" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F76" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="N76" s="2"/>
+      <c r="O76" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P76" s="2"/>
+      <c r="Q76" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R76" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="77" hidden="true">
+      <c r="A77" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F77" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="N77" s="2"/>
+      <c r="O77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P77" s="2"/>
+      <c r="Q77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="78" hidden="true">
+      <c r="A78" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F78" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="N78" s="2"/>
+      <c r="O78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P78" s="2"/>
+      <c r="Q78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM78" t="s" s="2">
         <v>43</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM67">
+  <autoFilter ref="A1:AM78">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9092,7 +10408,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI66">
+  <conditionalFormatting sqref="A2:AI77">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
